--- a/Valence/valence.xlsx
+++ b/Valence/valence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albaperis/Desktop/Alba/PhD UPM /Von Restroff WP3/Paper_github/Odd_SOA_CRP/Valence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C562E25E-2405-0049-88AC-F9110EEBF8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA5FBC-C900-AF42-82CD-03E887170C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10940" yWindow="480" windowWidth="10780" windowHeight="16480" xr2:uid="{73549BAD-A811-D646-A4E8-6E319C07B6BE}"/>
   </bookViews>
@@ -122,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,12 +164,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -184,7 +178,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -210,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,13 +224,12 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +548,7 @@
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,25 +558,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="2"/>
@@ -635,71 +627,71 @@
       <c r="BA1" s="2"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1.18</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.5</v>
       </c>
-      <c r="D2" s="10">
-        <v>100</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1.6</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.88</v>
       </c>
-      <c r="D3" s="10">
-        <v>100</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9">
         <v>7.95</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1.28</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1.95</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D4" s="10">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+      <c r="E4" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.86</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>100</v>
       </c>
       <c r="H4" s="5"/>
@@ -753,334 +745,334 @@
       <c r="BG4" s="8"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1.27</v>
       </c>
-      <c r="D5" s="10">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+      <c r="E5" s="9">
         <v>7.6</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1.73</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1.3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D6" s="10">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1.21</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2.15</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1.17</v>
       </c>
-      <c r="D7" s="10">
-        <v>100</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="9">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9">
         <v>7.9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1.17</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1.23</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.73</v>
       </c>
-      <c r="D8" s="10">
-        <v>100</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="9">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9">
         <v>7.8</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1.24</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1.3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9">
         <v>6.9</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>2.15</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.88</v>
       </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="E10" s="9">
         <v>7.6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>1.39</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>2.15</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1.39</v>
       </c>
-      <c r="D11" s="10">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
         <v>7.65</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1.04</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>2.75</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1.33</v>
       </c>
-      <c r="D12" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="9">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9">
         <v>6.95</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>1.39</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>2.9</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1.95</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>72.5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>6.17</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1.93</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>72.5</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>1.95</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1.31</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>95</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>7.35</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1.18</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>2.1</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>1.17</v>
       </c>
-      <c r="D16" s="10">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="9">
+        <v>100</v>
+      </c>
+      <c r="E16" s="9">
         <v>7.1</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1.45</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>1.45</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.69</v>
       </c>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="9">
+        <v>100</v>
+      </c>
+      <c r="E17" s="9">
         <v>7.35</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1.46</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1.17</v>
       </c>
-      <c r="D19" s="10">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9">
         <v>7</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>1.52</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2.25</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>1.24</v>
       </c>
-      <c r="D20" s="10">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="9">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
         <v>7.15</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>1.76</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1088,22 +1080,22 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>1.33</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>0.69</v>
       </c>
-      <c r="D21" s="10">
-        <v>100</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="9">
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
         <v>7.45</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1.05</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>100</v>
       </c>
     </row>
